--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
@@ -103,16 +103,16 @@
     <t>please</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -1195,25 +1195,25 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
         <v>175</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,25 +1221,25 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7006172839506173</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="L14">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M14">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1247,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6996466431095406</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,25 +1273,25 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6865671641791045</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1299,25 +1299,25 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6705882352941176</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L17">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="10:17">
